--- a/biology/Botanique/Jardin_Damia/Jardin_Damia.xlsx
+++ b/biology/Botanique/Jardin_Damia/Jardin_Damia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Damia est un espace vert du 11e arrondissement de Paris, dans le quartier Sainte-Marguerite.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est situé dans le sud-est du 11e arrondissement de Paris. Il est délimité au nord par les 24-34, rue Robert-et-Sonia-Delaunay, à l'ouest par les 23-31, passage du Bureau et à l'est par les 91-95, boulevard de Charonne. Au sud, il jouxte des habitations.
 Il est desservi par la ligne 2 à la station Alexandre Dumas.
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin prend une forme rectangulaire de 4 500 m2. Il possède le label « espace vert écologique » de la mairie de Paris.
 </t>
@@ -575,7 +591,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de la chanteuse française, Marie-Louise Damien, dite Damia (1889-1978).
 </t>
@@ -606,7 +624,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1997, dans la ZAC Dorian.
 </t>
